--- a/medicine/Enfance/Marlène_Jobert/Marlène_Jobert.xlsx
+++ b/medicine/Enfance/Marlène_Jobert/Marlène_Jobert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marl%C3%A8ne_Jobert</t>
+          <t>Marlène_Jobert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marlène Jobert, née le 4 novembre 1940 à Alger[1] en Algérie française, est une actrice française, également romancière et conteuse pour enfants.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marlène Jobert, née le 4 novembre 1940 à Alger en Algérie française, est une actrice française, également romancière et conteuse pour enfants.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marl%C3%A8ne_Jobert</t>
+          <t>Marlène_Jobert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,72 +525,347 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Marlène Jobert est la fille de Charles Jobert, adjudant-chef, militaire de carrière dans l'aviation et d'Éliane Azulay, originaire de Birkhadem en Algérie[2]. 
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marlène Jobert est la fille de Charles Jobert, adjudant-chef, militaire de carrière dans l'aviation et d'Éliane Azulay, originaire de Birkhadem en Algérie. 
 Marlène Jobert entreprend des études au conservatoire de Dijon tout en étant élève des Beaux-arts de Dijon. Elle étudie ensuite le drame et l'art au Conservatoire de Paris, gagnant sa vie comme modèle pour photos et figurante dans des productions cinématographiques.
-Carrière d'actrice
-Années 1960
-Après quelques engagements au théâtre — en particulier Des clowns par milliers, avec Yves Montand[3] — et à la télévision, elle commence à connaître la notoriété grâce à ses rôles sur grand écran.
-En 1962, elle subit un grave accident automobile à Paris sur l'île Saint-Louis; la voiture dérape, sa tête est brutalement projetée contre le pare-brise et le choc violent la défigure. En 1965, elle précise  : « j'ai cru devenir folle. C'était horrible. Je ne pouvais plus me regarder dans une glace, j'avais une cicatrice de 12 cm. Je pensais ne jamais sortir de ce cauchemar. La chirurgie esthétique m'a sauvé la vie[4]. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière d'actrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Années 1960</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après quelques engagements au théâtre — en particulier Des clowns par milliers, avec Yves Montand — et à la télévision, elle commence à connaître la notoriété grâce à ses rôles sur grand écran.
+En 1962, elle subit un grave accident automobile à Paris sur l'île Saint-Louis; la voiture dérape, sa tête est brutalement projetée contre le pare-brise et le choc violent la défigure. En 1965, elle précise  : « j'ai cru devenir folle. C'était horrible. Je ne pouvais plus me regarder dans une glace, j'avais une cicatrice de 12 cm. Je pensais ne jamais sortir de ce cauchemar. La chirurgie esthétique m'a sauvé la vie. »
 Elle fait ses débuts à la scène en 1963 puis à l'écran en 1966, dans un second rôle marquant du film Masculin féminin de Jean-Luc Godard, pour lequel elle intervient aux côtés de Jean-Pierre Léaud et Chantal Goya; elle va les retrouver par ailleurs, dans Les Dossiers de l'Agence O en 1968. 
 En 1967, elle joue aux côtés de Jean-Paul Belmondo et de Geneviève Bujold dans Le Voleur de Louis Malle.
 En 1968, le film populaire Alexandre le Bienheureux lui permet de devenir célèbre; elle donne la réplique à Philippe Noiret. Le rôle du personnage féminin intéressé de Rita dans Faut pas prendre les enfants du bon Dieu pour des canards sauvages lui est attribué par le réalisateur et auteur Michel Audiard ; aux côtés de Bernard Blier, Françoise Rosay, André Pousse, elle campe un personnage de jeune femme mutine, dévorée par l'ambition. La même année, Guy Casaril lui propose le rôle principal de L'Astragale, d'après le livre éponyme d'Albertine Sarrazin, lequel remporte le succès du box-office.
-Années 1970
-Au début des années 1970, elle connaît trois de ses plus grands succès au cinéma comme policière dans Dernier Domicile connu de José Giovanni (avec Lino Ventura), dans le thriller de René Clément Le Passager de la pluie (avec Charles Bronson) et de Jean-Paul Rappeneau Les Mariés de l'an II (avec Jean-Paul Belmondo).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière d'actrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Années 1970</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début des années 1970, elle connaît trois de ses plus grands succès au cinéma comme policière dans Dernier Domicile connu de José Giovanni (avec Lino Ventura), dans le thriller de René Clément Le Passager de la pluie (avec Charles Bronson) et de Jean-Paul Rappeneau Les Mariés de l'an II (avec Jean-Paul Belmondo).
 À cette période, les principaux metteurs en scène faisant appel à Marlène Jobert sont notamment Philippe de Broca, Claude Chabrol, Robert Enrico et Claude Lelouch. Dans les années 1970, elle participe avec sa propre entreprise, MJ, à la coproduction de quelques-uns de ses films, comme en 1974 les comédies Juliette et Juliette avec Annie Girardot et Pas si méchant que ça avec Gérard Depardieu.
 Dans un registre plus dramatique, Maurice Pialat la met en scène avec Jean Yanne dans Nous ne vieillirons pas ensemble (1972) où elle est particulièrement remarquée par la critique. Son opiniâtreté permet au film dont le tournage a été retardé par la mort de l'épouse de Jean Yanne, d'être mené à bien.
 Actrice rousse aux cheveux courts le plus souvent, elle interprète des rôles où les actions courageuses de ses personnages confrontées à la virilité de ses partenaires masculins contrastent avec son image d'apparente fragilité, comme dans Folle à tuer d'Yves Boisset dans lequel son personnage est la proie d'une machination.
-Années 1980
-Pendant quelques années, Marlène Jobert entreprend de chanter et d'enregistrer des disques. Elle connaît un certain succès entre 1985 et 1988 avec les chansons C'est un éternel besoin d'amour (1984), Je ne pense qu'à toi (Les oiseaux chantent faux) (1985), Super vibrations, Viens te jeter dans mes bras (1986) et Hei, Amore ! (1986).  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carrière d'actrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Années 1980</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant quelques années, Marlène Jobert entreprend de chanter et d'enregistrer des disques. Elle connaît un certain succès entre 1985 et 1988 avec les chansons C'est un éternel besoin d'amour (1984), Je ne pense qu'à toi (Les oiseaux chantent faux) (1985), Super vibrations, Viens te jeter dans mes bras (1986) et Hei, Amore ! (1986).  
 En 1986 l'album Tout pour se plaire est distribué dans de nombreux pays francophones, dont le Québec. Durant cette décennie, Marlène Jobert tourne peu (six films au total) ; en 1989, elle participe à son dernier film, Les cigognes n'en font qu'à leur tête, sous la direction de Didier Kaminka.
-Années 1990
-Délaissant le cinéma, Marlène Jobert ne tourne plus qu'occasionnellement pour la télévision. Au milieu des années 1990, son dernier rôle notable est celui de l'avocate Claire Moretti, dans la série télévisée Avocat d'office.
-Années 2000
-En 2002, elle refuse un rôle dans le film Huit femmes, rôle qui sera confié à Isabelle Huppert.
-En 2007, elle reçoit le prix d'honneur lors de l'attribution des Césars[5].
-Carrière d'auteure et de conteuse
-En 1979, Marlène Jobert publie un disque sur lequel elle lit des poèmes de Jacques Prévert[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carrière d'actrice</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Délaissant le cinéma, Marlène Jobert ne tourne plus qu'occasionnellement pour la télévision. Au milieu des années 1990, son dernier rôle notable est celui de l'avocate Claire Moretti, dans la série télévisée Avocat d'office.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Carrière d'actrice</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2002, elle refuse un rôle dans le film Huit femmes, rôle qui sera confié à Isabelle Huppert.
+En 2007, elle reçoit le prix d'honneur lors de l'attribution des Césars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Carrière d'auteure et de conteuse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1979, Marlène Jobert publie un disque sur lequel elle lit des poèmes de Jacques Prévert.
 Elle est la narratrice et parfois l'auteur de la série de fascicules « Les Plus Beaux Contes du monde » publiés par les éditions Atlas dans les années 1990.
-Depuis les années 2000, elle écrit et enregistre des livres parlés pour enfants, des livres sur la musique distribués à plus de 15 millions d'exemplaires à travers le monde, au cours de sa carrière de conteuse[7].
-En 2014, elle publie chez Plon son autobiographie, Les Baisers du soleil[7].
-Plusieurs écoles maternelles en France portent son nom[8],[9].
-Vie privée
-Au début des années 1960, Marlène Jobert, actrice débutante, vit avec Claude Berri.
-En 1974, un fait divers met en lumière une proximité supposée avec Valéry Giscard d'Estaing ; un accident de la route en plein Paris, dont la victime est le nouveau président de la République au volant de la Ferrari prêtée par le réalisateur Roger Vadim, épisode que l'hebdomadaire satirique Le Canard enchaîné ne manque pas de relater[10] alors que la présence de l'actrice aux côtés de Valéry Giscard d'Estaing est évoquée[11]. Toutefois, Marlène Jobert tient à démentir dans son autobiographie parue en 2014, qu'une liaison amoureuse ait pu exister entre eux[12].
-En 1976, au sommet de sa gloire, Marlène Jobert tombe amoureuse de Walter Green, un chirurgien-dentiste suédois, lequel ignore sa notoriété en France ; ils vivent ensemble puis rapidement se marient[13].
-Le 6 juillet 1980, elle donne naissance à des jumelles, Eva et Joy. Eva Green est actrice et la jumelle de celle-ci, Joy Green, plus discrète, a été éleveuse de pur-sang en Normandie[14]. Par la suite, elle a suivi son mari en Italie, où celui-ci est producteur de vin.
+Depuis les années 2000, elle écrit et enregistre des livres parlés pour enfants, des livres sur la musique distribués à plus de 15 millions d'exemplaires à travers le monde, au cours de sa carrière de conteuse.
+En 2014, elle publie chez Plon son autobiographie, Les Baisers du soleil.
+Plusieurs écoles maternelles en France portent son nom,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début des années 1960, Marlène Jobert, actrice débutante, vit avec Claude Berri.
+En 1974, un fait divers met en lumière une proximité supposée avec Valéry Giscard d'Estaing ; un accident de la route en plein Paris, dont la victime est le nouveau président de la République au volant de la Ferrari prêtée par le réalisateur Roger Vadim, épisode que l'hebdomadaire satirique Le Canard enchaîné ne manque pas de relater alors que la présence de l'actrice aux côtés de Valéry Giscard d'Estaing est évoquée. Toutefois, Marlène Jobert tient à démentir dans son autobiographie parue en 2014, qu'une liaison amoureuse ait pu exister entre eux.
+En 1976, au sommet de sa gloire, Marlène Jobert tombe amoureuse de Walter Green, un chirurgien-dentiste suédois, lequel ignore sa notoriété en France ; ils vivent ensemble puis rapidement se marient.
+Le 6 juillet 1980, elle donne naissance à des jumelles, Eva et Joy. Eva Green est actrice et la jumelle de celle-ci, Joy Green, plus discrète, a été éleveuse de pur-sang en Normandie. Par la suite, elle a suivi son mari en Italie, où celui-ci est producteur de vin.
 Parmi sa famille proche, deux de ses nièces sont des artistes reconnues : la chanteuse Elsa, fille de sa sœur Christiane Jobert elle-même artiste peintre et sculptrice, et l'actrice Joséphine Jobert, fille de son frère Charles Jobert, directeur de la photographie. Un autre de ses frères est le Pr Guy Jobert, universitaire.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Marl%C3%A8ne_Jobert</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinéma
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1966 : Masculin féminin de Jean-Luc Godard : Elisabeth
 1966 : Martin Soldat de Michel Deville : la résistante
 1967 : Alexandre le Bienheureux d'Yves Robert : Agathe Bordeaux
@@ -609,7 +896,43 @@
 1984 : Les Cavaliers de l'orage de Gérard Vergez : Marie Castaing
 1984 : Souvenirs, Souvenirs d'Ariel Zeitoun : Nadia
 1989 : Les cigognes n'en font qu'à leur tête de Didier Kaminka : Marie Dornec
-Télévision
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1967 : Par quatre chemins (téléfilm)
 1967 : Rue barrée d'André Versini (série télévisée) : Martine Ponchon
 1967 : Les Chevaliers du ciel de François Villiers (série télévisée) : Irène
@@ -625,35 +948,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Marl%C3%A8ne_Jobert</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1962 : Le Timide au palais de Tirso de Molina, mise en scène NA Caravette, Théâtre Gramont
-1963 : Des clowns par milliers d'Herb Gardner, mise en scène Raymond Rouleau, Théâtre du Gymnase[3]
+1963 : Des clowns par milliers d'Herb Gardner, mise en scène Raymond Rouleau, Théâtre du Gymnase
 1967 : Danse lente sur le champ de bataille de William Hanley, mise en scène Jean Tasso et Gilles Segal, Théâtre des Mathurins
 1967 : L'Œil anonyme de Peter Shaffer, mise en scène Raymond Gérôme, Théâtre Montparnasse
 1967 : Black Comedy de Peter Shaffer, mise en scène Raymond Gérôme, Théâtre Montparnasse
@@ -661,33 +986,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Marl%C3%A8ne_Jobert</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Publications et livres audio</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marlène Jobert dit Prévert, 1979, disque sur lequel elle lit des poèmes de Jacques Prévert[15].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marlène Jobert dit Prévert, 1979, disque sur lequel elle lit des poèmes de Jacques Prévert.
 Une nuit bizarre, bizarre, pour faire aimer la musique de Bach
 L'Arbre qui pleure, pour faire aimer la musique de Mozart
 Ma mère a engagé une sorcière!, pour faire aimer la musique de Chopin
@@ -711,41 +1038,80 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Marl%C3%A8ne_Jobert</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Décorations
-2014 :  Commandeure de l'ordre des Arts et des Lettres[16]
-2022 :  Chevalière de la Légion d'honneur[17].
-Récompenses
-1968 : prix Bistingo (prix annuel décerné à une jeune vedette par un jury dédié)
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2014 :  Commandeure de l'ordre des Arts et des Lettres
+2022 :  Chevalière de la Légion d'honneur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Marlène_Jobert</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marl%C3%A8ne_Jobert</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1968 : prix Bistingo (prix annuel décerné à une jeune vedette par un jury dédié)
 1970 : prix spécial David di Donatello pour sa performance dans le film Le Passager de la pluie
 1970 : prix spécial David di Donatello pour sa performance dans le film Dernier Domicile connu
 1973 : prix Archange du cinéma (prix partagé avec Pierre Richard)
-2007 : César d'honneur[18]</t>
+2007 : César d'honneur</t>
         </is>
       </c>
     </row>
